--- a/Tables/Table S02.xlsx
+++ b/Tables/Table S02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenup\Dropbox\03-Trabalho\01-Science\01-Artigos sendo Escritos\Sucesso das Cutias\GitHub Repo\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Dropbox\03-Trabalho\01-Science\01-Artigos sendo Escritos\02-Aceitos\Sucesso das Cutias\GitHub Repo\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="S2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK1" localSheetId="0">'S2'!$F$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,15 +35,6 @@
     <t>Duration (days)</t>
   </si>
   <si>
-    <t>Unmarked Individuals Captured</t>
-  </si>
-  <si>
-    <t>Number of Individuals Captured</t>
-  </si>
-  <si>
-    <t>Total Number of Captures</t>
-  </si>
-  <si>
     <t>End</t>
   </si>
   <si>
@@ -48,6 +42,15 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>No. of individuals captured</t>
+  </si>
+  <si>
+    <t>Total no. of captures</t>
+  </si>
+  <si>
+    <t>No. of unmarked individuals captured</t>
   </si>
 </sst>
 </file>
@@ -73,18 +76,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -104,20 +107,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -137,31 +131,31 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,218 +442,220 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>41456</v>
+      </c>
+      <c r="B2" s="2">
+        <v>41477</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41481</v>
+      </c>
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>41579</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41582</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41586</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>41456</v>
-      </c>
-      <c r="B2" s="7">
-        <v>41477</v>
-      </c>
-      <c r="C2" s="7">
-        <v>41481</v>
-      </c>
-      <c r="D2" s="6">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>41671</v>
+      </c>
+      <c r="B4" s="2">
+        <v>41673</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41677</v>
+      </c>
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>41760</v>
+      </c>
+      <c r="B5" s="2">
+        <v>41764</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41775</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>41852</v>
+      </c>
+      <c r="B6" s="2">
+        <v>41869</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41880</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>41579</v>
-      </c>
-      <c r="B3" s="7">
-        <v>41582</v>
-      </c>
-      <c r="C3" s="7">
-        <v>41586</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>41671</v>
-      </c>
-      <c r="B4" s="7">
-        <v>41673</v>
-      </c>
-      <c r="C4" s="7">
-        <v>41677</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>41760</v>
-      </c>
-      <c r="B5" s="7">
-        <v>41764</v>
-      </c>
-      <c r="C5" s="7">
-        <v>41775</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>41944</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41946</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41957</v>
+      </c>
+      <c r="D7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>41852</v>
-      </c>
-      <c r="B6" s="7">
-        <v>41869</v>
-      </c>
-      <c r="C6" s="7">
-        <v>41880</v>
-      </c>
-      <c r="D6" s="6">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42064</v>
+      </c>
+      <c r="B8" s="8">
+        <v>42065</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42076</v>
+      </c>
+      <c r="D8" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>41944</v>
-      </c>
-      <c r="B7" s="7">
-        <v>41946</v>
-      </c>
-      <c r="C7" s="7">
-        <v>41957</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>42064</v>
-      </c>
-      <c r="B8" s="4">
-        <v>42065</v>
-      </c>
-      <c r="C8" s="4">
-        <v>42076</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12</v>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5">
         <v>38</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="5">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="5">
         <v>14</v>
-      </c>
-      <c r="G9" s="1">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -667,5 +663,6 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>